--- a/player-analysis/server/customer_model_data/valueseg.csv.xlsx
+++ b/player-analysis/server/customer_model_data/valueseg.csv.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectDocs\angular_projects\graphs-app\customer_model_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prototype_login\customer_model_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>Dormant</t>
   </si>
@@ -50,18 +50,6 @@
     <t>daimond</t>
   </si>
   <si>
-    <t>(£0)</t>
-  </si>
-  <si>
-    <t>£17</t>
-  </si>
-  <si>
-    <t>(£0) - £146</t>
-  </si>
-  <si>
-    <t>£433 - £2,896</t>
-  </si>
-  <si>
     <t>100% Dormant</t>
   </si>
   <si>
@@ -86,9 +74,6 @@
     <t>2016_09_10</t>
   </si>
   <si>
-    <t>2016_08_27</t>
-  </si>
-  <si>
     <t>Period</t>
   </si>
   <si>
@@ -105,12 +90,33 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Dummy Sample Record</t>
+  </si>
+  <si>
+    <t>Dormant1</t>
+  </si>
+  <si>
+    <t>Dummy Sample Recordss</t>
+  </si>
+  <si>
+    <t>0 - 146</t>
+  </si>
+  <si>
+    <t>433 - 2,896</t>
+  </si>
+  <si>
+    <t>433 - 2,8926</t>
+  </si>
+  <si>
+    <t>2016_09_25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,49 +469,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="7" width="70.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="27.625" customWidth="1"/>
+    <col min="7" max="7" width="70.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -516,19 +522,19 @@
       <c r="D2">
         <v>755.072</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -539,19 +545,19 @@
       <c r="D3">
         <v>755.072</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
+      <c r="E3" s="1">
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -562,19 +568,19 @@
       <c r="D4">
         <v>755.072</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -585,19 +591,19 @@
       <c r="D5">
         <v>755.072</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
+      <c r="E5">
+        <v>17</v>
       </c>
       <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -608,19 +614,19 @@
       <c r="D6">
         <v>755.072</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
+      <c r="E6" s="1">
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -631,19 +637,19 @@
       <c r="D7">
         <v>755.072</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
+      <c r="E7">
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -654,19 +660,19 @@
       <c r="D8">
         <v>755.072</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
+      <c r="E8">
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -677,19 +683,19 @@
       <c r="D9">
         <v>755.072</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
         <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -700,19 +706,19 @@
       <c r="D10">
         <v>755.072</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
+      <c r="E10" s="1">
+        <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -723,19 +729,19 @@
       <c r="D11">
         <v>755.072</v>
       </c>
-      <c r="E11" t="s">
-        <v>8</v>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -746,19 +752,19 @@
       <c r="D12">
         <v>755.072</v>
       </c>
-      <c r="E12" t="s">
-        <v>9</v>
+      <c r="E12">
+        <v>17</v>
       </c>
       <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
         <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -769,19 +775,19 @@
       <c r="D13">
         <v>755.072</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
+      <c r="E13" s="1">
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -792,19 +798,19 @@
       <c r="D14">
         <v>755.072</v>
       </c>
-      <c r="E14" t="s">
-        <v>9</v>
+      <c r="E14">
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -815,14 +821,60 @@
       <c r="D15">
         <v>755.072</v>
       </c>
-      <c r="E15" t="s">
-        <v>9</v>
+      <c r="E15">
+        <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>667</v>
+      </c>
+      <c r="E16">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>112</v>
+      </c>
+      <c r="D17">
+        <v>667</v>
+      </c>
+      <c r="E17">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
